--- a/data/Raw-removal-1952.xlsx
+++ b/data/Raw-removal-1952.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/Harpseals/HSmodel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9B656421-8FD0-4A77-B18D-3D976C617896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B1ADA0B4-529C-48A9-A225-23B21531AD7F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{9B656421-8FD0-4A77-B18D-3D976C617896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65F652C-D0D9-42A1-9F8F-402AB90AE2AC}"/>
   <bookViews>
-    <workbookView xWindow="-24195" yWindow="2190" windowWidth="20640" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29835" yWindow="1320" windowWidth="27495" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw-removal-1952" sheetId="1" r:id="rId1"/>
@@ -887,16 +887,17 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.87890625" customWidth="1"/>
-    <col min="8" max="8" width="17.52734375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1952</v>
       </c>
@@ -948,7 +949,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1953</v>
       </c>
@@ -974,7 +975,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1954</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1955</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1956</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1957</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1958</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1959</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1960</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1961</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1962</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1963</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1964</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1965</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1966</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1967</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1968</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1969</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1970</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1971</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>0.62857142899999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1972</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>0.57248520700000005</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1973</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>0.55266418799999995</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1974</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>0.64344942000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1975</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>0.61688311699999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1976</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>0.60297766699999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1977</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>0.76940132999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1978</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>0.41957255300000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1979</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>0.50394265199999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1980</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>0.26365546200000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1981</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>0.26365546200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1982</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>0.3075</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1983</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>0.27272727299999999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1984</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1985</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1986</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1987</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1988</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1989</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1990</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1991</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1992</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1993</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1994</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1995</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1996</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1997</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1998</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1999</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2000</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2001</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2002</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2003</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2004</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2005</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2006</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2007</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2008</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2009</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2010</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2012</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2013</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2014</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>0.14272089299999999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2019</v>
       </c>
